--- a/hw1.xlsx
+++ b/hw1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -401,64 +401,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4C176-4FE7-4F6B-8793-9E011BC16861}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2">
         <f ca="1">INT(10*RAND())</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <f t="array" aca="1" ref="C2:C4" ca="1">_xll.XLL.SORT(B2:B4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f ca="1">MIN(B2:B4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="b">
         <f ca="1">C2=D2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3">
         <f ca="1">INT(10*RAND())</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="C3">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4">
         <f ca="1">INT(10*RAND())</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <f ca="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f ca="1">MAX(B2:B4)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="b">
         <f ca="1">C4=D4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="b">
         <f ca="1">AND(E4,E2)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <f ca="1">INT(10*RAND())</f>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="array" aca="1" ref="E10:E12" ca="1">_xll.XLL.SORT(C10:C12)</f>
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f ca="1">INT(10*RAND())</f>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f ca="1">INT(10*RAND())</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f ca="1">INT(10*RAND())</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <f ca="1">INT(10*RAND())</f>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <f ca="1">INT(10*RAND())</f>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f t="array" aca="1" ref="G12:I12" ca="1">_xll.XLL.SORT(G10:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <f t="shared" ref="G14:I15" ca="1" si="0">INT(10*RAND())</f>
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <f t="array" aca="1" ref="G17:I18" ca="1">_xll.XLL.SORT(G14:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <f ca="1"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
